--- a/data/globalTables/reuseMaterial.xlsx
+++ b/data/globalTables/reuseMaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>BOM编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -50,9 +50,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>56-2</t>
-  </si>
-  <si>
     <t>S171109Q00452180120143</t>
   </si>
   <si>
@@ -62,15 +59,9 @@
     <t>56-6</t>
   </si>
   <si>
-    <t>44-5</t>
-  </si>
-  <si>
     <t>46-2</t>
   </si>
   <si>
-    <t>44-8</t>
-  </si>
-  <si>
     <t>不良条码1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -176,6 +167,34 @@
   </si>
   <si>
     <t>2018-04-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良条码个数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfBarCodes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -559,19 +578,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="6" max="15" width="31.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="16" width="31.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -582,45 +604,48 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -629,464 +654,362 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data/globalTables/reuseMaterial.xlsx
+++ b/data/globalTables/reuseMaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="42">
   <si>
     <t>BOM编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -50,6 +50,9 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>56-2</t>
+  </si>
+  <si>
     <t>S171109Q00452180120143</t>
   </si>
   <si>
@@ -59,9 +62,15 @@
     <t>56-6</t>
   </si>
   <si>
+    <t>44-5</t>
+  </si>
+  <si>
     <t>46-2</t>
   </si>
   <si>
+    <t>44-8</t>
+  </si>
+  <si>
     <t>不良条码1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,34 +176,6 @@
   </si>
   <si>
     <t>2018-04-08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良条码个数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfBarCodes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -578,22 +559,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:J9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="16" width="31.875" style="2" customWidth="1"/>
+    <col min="6" max="15" width="31.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -604,48 +582,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>39</v>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -654,362 +629,464 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data/globalTables/reuseMaterial.xlsx
+++ b/data/globalTables/reuseMaterial.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="44">
   <si>
     <t>BOM编码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -176,6 +176,14 @@
   </si>
   <si>
     <t>2018-04-08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>machineID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -559,131 +567,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="6" max="15" width="31.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="7" max="16" width="31.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
@@ -711,26 +728,29 @@
       <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="P3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
@@ -758,26 +778,29 @@
       <c r="O4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="P4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
@@ -805,26 +828,29 @@
       <c r="O5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="P5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
@@ -852,26 +878,29 @@
       <c r="O6" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="P6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
@@ -899,26 +928,29 @@
       <c r="O7" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="P7" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
@@ -946,26 +978,29 @@
       <c r="O8" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="P8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
@@ -993,26 +1028,29 @@
       <c r="O9" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="P9" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1040,26 +1078,29 @@
       <c r="O10" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="P10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1085,6 +1126,9 @@
         <v>9</v>
       </c>
       <c r="O11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
